--- a/classification/droptc/modern-bert/freeze/24677315/prediction.xlsx
+++ b/classification/droptc/modern-bert/freeze/24677315/prediction.xlsx
@@ -483,14 +483,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4096014797687531</v>
+        <v>0.5226806998252869</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +506,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -515,10 +515,10 @@
         </is>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6060334444046021</v>
+        <v>0.7469130158424377</v>
       </c>
     </row>
     <row r="4">
@@ -534,7 +534,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -543,10 +543,10 @@
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7615171670913696</v>
+        <v>0.4094894826412201</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7379499077796936</v>
+        <v>0.2987772822380066</v>
       </c>
     </row>
     <row r="6">
@@ -590,7 +590,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -599,10 +599,10 @@
         </is>
       </c>
       <c r="E6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5321147441864014</v>
+        <v>0.7636173367500305</v>
       </c>
     </row>
     <row r="7">
@@ -618,7 +618,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,10 +627,10 @@
         </is>
       </c>
       <c r="E7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.3009220063686371</v>
       </c>
     </row>
     <row r="8">
@@ -646,7 +646,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -655,10 +655,10 @@
         </is>
       </c>
       <c r="E8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6426293849945068</v>
+        <v>0.7164880633354187</v>
       </c>
     </row>
     <row r="9">
@@ -674,7 +674,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -683,10 +683,10 @@
         </is>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.6092188358306885</v>
       </c>
     </row>
     <row r="10">
@@ -702,7 +702,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="E10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8581766486167908</v>
+        <v>0.4023215174674988</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.7614348530769348</v>
+        <v>0.6707371473312378</v>
       </c>
     </row>
     <row r="12">
@@ -758,7 +758,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -767,10 +767,10 @@
         </is>
       </c>
       <c r="E12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.7585315704345703</v>
+        <v>0.8561927676200867</v>
       </c>
     </row>
     <row r="13">
@@ -786,7 +786,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -795,10 +795,10 @@
         </is>
       </c>
       <c r="E13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5712313055992126</v>
+        <v>0.34737429022789</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +814,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -823,10 +823,10 @@
         </is>
       </c>
       <c r="E14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.835422694683075</v>
+        <v>0.5311061143875122</v>
       </c>
     </row>
     <row r="15">
@@ -842,7 +842,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -854,7 +854,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.3275235891342163</v>
       </c>
     </row>
     <row r="16">
@@ -870,7 +870,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="E16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.8099676966667175</v>
       </c>
     </row>
     <row r="17">
@@ -898,7 +898,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="E17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.5950053334236145</v>
+        <v>0.3034332692623138</v>
       </c>
     </row>
     <row r="18">
@@ -926,7 +926,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -935,10 +935,10 @@
         </is>
       </c>
       <c r="E18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3964706361293793</v>
+        <v>0.8761512041091919</v>
       </c>
     </row>
     <row r="19">
@@ -954,7 +954,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -963,10 +963,10 @@
         </is>
       </c>
       <c r="E19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.399825245141983</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.8851821422576904</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8637065887451172</v>
+        <v>0.5848934650421143</v>
       </c>
     </row>
     <row r="22">
@@ -1038,7 +1038,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1047,10 +1047,10 @@
         </is>
       </c>
       <c r="E22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.3987219035625458</v>
+        <v>0.8502931594848633</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3920151591300964</v>
+        <v>0.3627944588661194</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.4470960199832916</v>
+        <v>0.7339879870414734</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.5326834321022034</v>
+        <v>0.4160400927066803</v>
       </c>
     </row>
     <row r="26">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="E26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.8717291951179504</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8379799723625183</v>
+        <v>0.6662055850028992</v>
       </c>
     </row>
     <row r="28">
@@ -1206,19 +1206,19 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E28" t="b">
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.3449975848197937</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.7052859663963318</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7605918645858765</v>
+        <v>0.753409743309021</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.610224723815918</v>
+        <v>0.6447774767875671</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.7381153106689453</v>
+        <v>0.9138363003730774</v>
       </c>
     </row>
     <row r="33">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1355,10 +1355,10 @@
         </is>
       </c>
       <c r="E33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9410161972045898</v>
+        <v>0.6357482671737671</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.697422981262207</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.6580061316490173</v>
       </c>
     </row>
     <row r="36">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1439,10 +1439,10 @@
         </is>
       </c>
       <c r="E36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6815612316131592</v>
+        <v>0.6010708212852478</v>
       </c>
     </row>
     <row r="37">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3655989468097687</v>
+        <v>0.5100278854370117</v>
       </c>
     </row>
     <row r="38">
@@ -1486,7 +1486,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1495,10 +1495,10 @@
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.4823233783245087</v>
+        <v>0.5687642097473145</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7091756463050842</v>
+        <v>0.9138363003730774</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.7464362382888794</v>
+        <v>0.6043798923492432</v>
       </c>
     </row>
     <row r="41">
@@ -1570,7 +1570,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1579,10 +1579,10 @@
         </is>
       </c>
       <c r="E41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6017884016036987</v>
+        <v>0.8511751890182495</v>
       </c>
     </row>
     <row r="42">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="E42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5839254856109619</v>
+        <v>0.9299643635749817</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.6112000942230225</v>
+        <v>0.7651489973068237</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5030508637428284</v>
+        <v>0.9138363003730774</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.6033989787101746</v>
+        <v>0.6500888466835022</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.7698906660079956</v>
+        <v>0.821194052696228</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.6774432063102722</v>
+        <v>0.5895711779594421</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.6084575057029724</v>
+        <v>0.3459276854991913</v>
       </c>
     </row>
     <row r="49">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="E49" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.5858234167098999</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.6210138201713562</v>
+        <v>0.5936341285705566</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.5918460488319397</v>
+        <v>0.8765780329704285</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8660696148872375</v>
+        <v>0.7418681383132935</v>
       </c>
     </row>
     <row r="53">
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1915,10 +1915,10 @@
         </is>
       </c>
       <c r="E53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.258831262588501</v>
+        <v>0.5975216627120972</v>
       </c>
     </row>
     <row r="54">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="E54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.6663077473640442</v>
+        <v>0.3627944588661194</v>
       </c>
     </row>
     <row r="55">
@@ -1962,7 +1962,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1971,10 +1971,10 @@
         </is>
       </c>
       <c r="E55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.6057952642440796</v>
+        <v>0.8005219697952271</v>
       </c>
     </row>
     <row r="56">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="E56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.5789650082588196</v>
+        <v>0.5390327572822571</v>
       </c>
     </row>
     <row r="57">
@@ -2018,7 +2018,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2027,10 +2027,10 @@
         </is>
       </c>
       <c r="E57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.6966500878334045</v>
+        <v>0.4849376678466797</v>
       </c>
     </row>
     <row r="58">
@@ -2046,7 +2046,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2055,10 +2055,10 @@
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.385038435459137</v>
+        <v>0.5363412499427795</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.795908510684967</v>
+        <v>0.7608630657196045</v>
       </c>
     </row>
     <row r="60">
@@ -2102,7 +2102,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2111,10 +2111,10 @@
         </is>
       </c>
       <c r="E60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2796368002891541</v>
+        <v>0.6876679658889771</v>
       </c>
     </row>
     <row r="61">
@@ -2130,19 +2130,19 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.412559300661087</v>
+        <v>0.4160400927066803</v>
       </c>
     </row>
     <row r="62">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2167,10 +2167,10 @@
         </is>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.7020283937454224</v>
+        <v>0.5025398135185242</v>
       </c>
     </row>
     <row r="63">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="E63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8193920254707336</v>
+        <v>0.3135622143745422</v>
       </c>
     </row>
     <row r="64">
@@ -2226,7 +2226,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.6438146233558655</v>
+        <v>0.6175400018692017</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.2936906218528748</v>
+        <v>0.7511218190193176</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.5474958419799805</v>
       </c>
     </row>
     <row r="67">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2307,10 +2307,10 @@
         </is>
       </c>
       <c r="E67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7298763394355774</v>
       </c>
     </row>
     <row r="68">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8234368562698364</v>
+        <v>0.3268936574459076</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7050462365150452</v>
+        <v>0.6325531005859375</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9026284217834473</v>
+        <v>0.7880250811576843</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.6391913890838623</v>
+        <v>0.8584582209587097</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.703619658946991</v>
+        <v>0.6812291741371155</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7607497572898865</v>
+        <v>0.6899202466011047</v>
       </c>
     </row>
     <row r="74">
@@ -2494,7 +2494,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>0.6459665298461914</v>
+        <v>0.4159923493862152</v>
       </c>
     </row>
     <row r="75">
@@ -2522,7 +2522,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2531,10 +2531,10 @@
         </is>
       </c>
       <c r="E75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8360492587089539</v>
+        <v>0.2813073396682739</v>
       </c>
     </row>
     <row r="76">
@@ -2550,7 +2550,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2559,10 +2559,10 @@
         </is>
       </c>
       <c r="E76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.7410905957221985</v>
+        <v>0.5580316185951233</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.7478903532028198</v>
+        <v>0.6623841524124146</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8702749609947205</v>
+        <v>0.8714907169342041</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8081175684928894</v>
+        <v>0.4043575525283813</v>
       </c>
     </row>
     <row r="80">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2671,10 +2671,10 @@
         </is>
       </c>
       <c r="E80" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.5653080344200134</v>
+        <v>0.358541339635849</v>
       </c>
     </row>
     <row r="81">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2699,10 +2699,10 @@
         </is>
       </c>
       <c r="E81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.6413590908050537</v>
+        <v>0.4938644766807556</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7034230828285217</v>
+        <v>0.7378778457641602</v>
       </c>
     </row>
     <row r="83">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2755,10 +2755,10 @@
         </is>
       </c>
       <c r="E83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.4932194948196411</v>
+        <v>0.9138363003730774</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.7928641438484192</v>
+        <v>0.6451200246810913</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.3275575339794159</v>
+        <v>0.4584842622280121</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.5352857708930969</v>
+        <v>0.7328373193740845</v>
       </c>
     </row>
     <row r="87">
@@ -2858,7 +2858,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2870,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.5125665068626404</v>
+        <v>0.6713054180145264</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.6810833215713501</v>
+        <v>0.6094360947608948</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.8477630615234375</v>
       </c>
     </row>
     <row r="90">
@@ -2942,7 +2942,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="E90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.3680062294006348</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8558724522590637</v>
+        <v>0.5940993428230286</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.410637229681015</v>
+        <v>0.7278643846511841</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.5792056322097778</v>
+        <v>0.6154738068580627</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9518547058105469</v>
+        <v>0.4160400927066803</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.6347335577011108</v>
+        <v>0.7344645857810974</v>
       </c>
     </row>
     <row r="96">
@@ -3110,7 +3110,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3119,10 +3119,10 @@
         </is>
       </c>
       <c r="E96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.4968899786472321</v>
+        <v>0.7923485636711121</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6414059400558472</v>
+        <v>0.5842570662498474</v>
       </c>
     </row>
     <row r="98">
@@ -3166,7 +3166,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3175,10 +3175,10 @@
         </is>
       </c>
       <c r="E98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>0.610224723815918</v>
+        <v>0.3698525428771973</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.6620907187461853</v>
+        <v>0.6094360947608948</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.6049568057060242</v>
+        <v>0.6708649396896362</v>
       </c>
     </row>
     <row r="101">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3259,10 +3259,10 @@
         </is>
       </c>
       <c r="E101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.5957988500595093</v>
+        <v>0.4160971343517303</v>
       </c>
     </row>
     <row r="102">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -3287,10 +3287,10 @@
         </is>
       </c>
       <c r="E102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>0.8114293813705444</v>
+        <v>0.3009220063686371</v>
       </c>
     </row>
     <row r="103">
@@ -3318,7 +3318,7 @@
         <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.4914695024490356</v>
+        <v>0.6873863935470581</v>
       </c>
     </row>
     <row r="104">
@@ -3334,7 +3334,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3343,10 +3343,10 @@
         </is>
       </c>
       <c r="E104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>0.6336064338684082</v>
+        <v>0.4849376678466797</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6919984817504883</v>
+        <v>0.9138363003730774</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7156000733375549</v>
+        <v>0.6450128555297852</v>
       </c>
     </row>
     <row r="107">
@@ -3418,7 +3418,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -3427,10 +3427,10 @@
         </is>
       </c>
       <c r="E107" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7332616448402405</v>
+        <v>0.5565237402915955</v>
       </c>
     </row>
     <row r="108">
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -3458,7 +3458,7 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>0.5931234359741211</v>
+        <v>0.5367990732192993</v>
       </c>
     </row>
     <row r="109">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -3483,10 +3483,10 @@
         </is>
       </c>
       <c r="E109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3665525019168854</v>
+        <v>0.4905892312526703</v>
       </c>
     </row>
     <row r="110">
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -3511,10 +3511,10 @@
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.281939297914505</v>
+        <v>0.8404152393341064</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.6811848282814026</v>
+        <v>0.5958693027496338</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.6734330058097839</v>
       </c>
     </row>
     <row r="113">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.5314717888832092</v>
+        <v>0.6122508645057678</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.2590746581554413</v>
+        <v>0.7829041481018066</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.7439001798629761</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.7699278593063354</v>
+        <v>0.2987772822380066</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.6204272508621216</v>
+        <v>0.7131285667419434</v>
       </c>
     </row>
     <row r="118">
@@ -3731,14 +3731,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.2489601224660873</v>
+        <v>0.3268936574459076</v>
       </c>
     </row>
     <row r="119">
@@ -3754,19 +3754,19 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.4333881735801697</v>
+        <v>0.3449975848197937</v>
       </c>
     </row>
     <row r="120">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3791,10 +3791,10 @@
         </is>
       </c>
       <c r="E120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>0.8460242748260498</v>
+        <v>0.5453647375106812</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8240159153938293</v>
+        <v>0.8358697891235352</v>
       </c>
     </row>
     <row r="122">
@@ -3838,7 +3838,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3847,10 +3847,10 @@
         </is>
       </c>
       <c r="E122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.3939111828804016</v>
+        <v>0.57801353931427</v>
       </c>
     </row>
     <row r="123">
@@ -3866,7 +3866,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3875,10 +3875,10 @@
         </is>
       </c>
       <c r="E123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>0.7816299796104431</v>
+        <v>0.4005593955516815</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.7663061618804932</v>
+        <v>0.7586436867713928</v>
       </c>
     </row>
     <row r="125">
@@ -3922,7 +3922,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.5257512927055359</v>
+        <v>0.5939368009567261</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.7181354761123657</v>
+        <v>0.6049213409423828</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.6186984181404114</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.782905101776123</v>
+        <v>0.4300060570240021</v>
       </c>
     </row>
     <row r="129">
@@ -4034,7 +4034,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4043,10 +4043,10 @@
         </is>
       </c>
       <c r="E129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.2566835880279541</v>
+        <v>0.7054338455200195</v>
       </c>
     </row>
     <row r="130">
@@ -4062,7 +4062,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4071,10 +4071,10 @@
         </is>
       </c>
       <c r="E130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.4728507697582245</v>
+        <v>0.8380720019340515</v>
       </c>
     </row>
     <row r="131">
@@ -4090,7 +4090,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4102,7 +4102,7 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.2691741287708282</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.7606334686279297</v>
+        <v>0.7593645453453064</v>
       </c>
     </row>
     <row r="133">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -4155,10 +4155,10 @@
         </is>
       </c>
       <c r="E133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.7739090919494629</v>
+        <v>0.3009220063686371</v>
       </c>
     </row>
     <row r="134">
@@ -4174,7 +4174,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -4183,10 +4183,10 @@
         </is>
       </c>
       <c r="E134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.5765131115913391</v>
+        <v>0.291939377784729</v>
       </c>
     </row>
     <row r="135">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -4211,10 +4211,10 @@
         </is>
       </c>
       <c r="E135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>0.8331655859947205</v>
+        <v>0.4418074190616608</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>Normal</t>
-        </is>
-      </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2896145880222321</v>
+        <v>0.4135976433753967</v>
       </c>
     </row>
     <row r="137">
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -4267,10 +4267,10 @@
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5277919173240662</v>
+        <v>0.7535432577133179</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4298,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>0.7061224579811096</v>
+        <v>0.4530279636383057</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.7430756688117981</v>
+        <v>0.5796514749526978</v>
       </c>
     </row>
     <row r="140">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -4354,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>0.3250497281551361</v>
+        <v>0.5352392792701721</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.8289533853530884</v>
+        <v>0.9163326025009155</v>
       </c>
     </row>
     <row r="142">
@@ -4398,7 +4398,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -4407,10 +4407,10 @@
         </is>
       </c>
       <c r="E142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>0.7032645344734192</v>
+        <v>0.6040311455726624</v>
       </c>
     </row>
     <row r="143">
@@ -4426,7 +4426,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -4435,10 +4435,10 @@
         </is>
       </c>
       <c r="E143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.4723906815052032</v>
+        <v>0.6819519996643066</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9558462500572205</v>
+        <v>0.7268711924552917</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.4200733602046967</v>
+        <v>0.7870660424232483</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3422785103321075</v>
+        <v>0.6338630318641663</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.314613401889801</v>
+        <v>0.715569794178009</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.4789038896560669</v>
+        <v>0.6829143166542053</v>
       </c>
     </row>
     <row r="149">
@@ -4594,7 +4594,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -4603,10 +4603,10 @@
         </is>
       </c>
       <c r="E149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9274416565895081</v>
+        <v>0.4396651387214661</v>
       </c>
     </row>
     <row r="150">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -4631,10 +4631,10 @@
         </is>
       </c>
       <c r="E150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5095199346542358</v>
+        <v>0.748908519744873</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.7404860854148865</v>
+        <v>0.6553186774253845</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.8819120526313782</v>
+        <v>0.745421290397644</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.7467293739318848</v>
+        <v>0.8459927439689636</v>
       </c>
     </row>
     <row r="154">
@@ -4734,7 +4734,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -4743,10 +4743,10 @@
         </is>
       </c>
       <c r="E154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>0.586546778678894</v>
+        <v>0.6422687768936157</v>
       </c>
     </row>
     <row r="155">
@@ -4767,14 +4767,14 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.3065287470817566</v>
+        <v>0.5346022844314575</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.4188736379146576</v>
+        <v>0.688625156879425</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.7291218638420105</v>
+        <v>0.4386308491230011</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.6180161237716675</v>
+        <v>0.9138363003730774</v>
       </c>
     </row>
     <row r="159">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>0.5676313638687134</v>
+        <v>0.5657308101654053</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.617241382598877</v>
+        <v>0.868751585483551</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.6840155720710754</v>
+        <v>0.6175400018692017</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.8044084906578064</v>
+        <v>0.6867557764053345</v>
       </c>
     </row>
     <row r="163">
@@ -4986,19 +4986,19 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.5136010050773621</v>
+        <v>0.2682680189609528</v>
       </c>
     </row>
     <row r="164">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -5023,10 +5023,10 @@
         </is>
       </c>
       <c r="E164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.6383135318756104</v>
+        <v>0.4881499111652374</v>
       </c>
     </row>
     <row r="165">
@@ -5042,7 +5042,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -5051,10 +5051,10 @@
         </is>
       </c>
       <c r="E165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.6152170896530151</v>
+        <v>0.5707424283027649</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.677447497844696</v>
+        <v>0.8827362060546875</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.7399293780326843</v>
+        <v>0.8827362060546875</v>
       </c>
     </row>
     <row r="168">
@@ -5126,7 +5126,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -5135,10 +5135,10 @@
         </is>
       </c>
       <c r="E168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.5848934650421143</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.8437055945396423</v>
+        <v>0.7265236377716064</v>
       </c>
     </row>
     <row r="170">
@@ -5182,7 +5182,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -5191,10 +5191,10 @@
         </is>
       </c>
       <c r="E170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.4474138915538788</v>
+        <v>0.675711452960968</v>
       </c>
     </row>
     <row r="171">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -5219,10 +5219,10 @@
         </is>
       </c>
       <c r="E171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.3187676668167114</v>
+        <v>0.6757112741470337</v>
       </c>
     </row>
     <row r="172">
@@ -5238,7 +5238,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -5247,10 +5247,10 @@
         </is>
       </c>
       <c r="E172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.8724782466888428</v>
+        <v>0.2272672802209854</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.5038226246833801</v>
+        <v>0.4076515436172485</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.6113190650939941</v>
+        <v>0.5836393237113953</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.5771687626838684</v>
+        <v>0.7477567195892334</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>0.3631279468536377</v>
+        <v>0.3121485114097595</v>
       </c>
     </row>
     <row r="177">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -5387,10 +5387,10 @@
         </is>
       </c>
       <c r="E177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.8614095449447632</v>
+        <v>0.751142680644989</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.6007004976272583</v>
+        <v>0.833410382270813</v>
       </c>
     </row>
     <row r="179">
@@ -5434,7 +5434,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -5443,10 +5443,10 @@
         </is>
       </c>
       <c r="E179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>0.6649743914604187</v>
+        <v>0.8249943852424622</v>
       </c>
     </row>
     <row r="180">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -5471,10 +5471,10 @@
         </is>
       </c>
       <c r="E180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.4266336262226105</v>
+        <v>0.9138363003730774</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.6336957216262817</v>
+        <v>0.6224322915077209</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.5680606961250305</v>
+        <v>0.9138363003730774</v>
       </c>
     </row>
     <row r="183">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -5555,10 +5555,10 @@
         </is>
       </c>
       <c r="E183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.3265554904937744</v>
+        <v>0.6103758215904236</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.9367331862449646</v>
       </c>
     </row>
     <row r="185">
@@ -5602,7 +5602,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -5611,10 +5611,10 @@
         </is>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.8634065985679626</v>
+        <v>0.4499187767505646</v>
       </c>
     </row>
     <row r="186">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -5639,10 +5639,10 @@
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.4875545501708984</v>
+        <v>0.8554379940032959</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.6368314623832703</v>
+        <v>0.6346314549446106</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.6558406352996826</v>
+        <v>0.8104746341705322</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>0.3877513408660889</v>
+        <v>0.3933166563510895</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.3063596785068512</v>
+        <v>0.5730165243148804</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.8858781456947327</v>
+        <v>0.8126593828201294</v>
       </c>
     </row>
     <row r="192">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5807,10 +5807,10 @@
         </is>
       </c>
       <c r="E192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.3548375070095062</v>
+        <v>0.4951069056987762</v>
       </c>
     </row>
     <row r="193">
@@ -5831,14 +5831,14 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>0.6997365355491638</v>
+        <v>0.3446239829063416</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.4123875200748444</v>
+        <v>0.519490122795105</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.6693964600563049</v>
+        <v>0.773942232131958</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.769239068031311</v>
+        <v>0.6043798923492432</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.6082947254180908</v>
+        <v>0.5573813319206238</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9181444048881531</v>
+        <v>0.8012545704841614</v>
       </c>
     </row>
     <row r="199">
@@ -5994,7 +5994,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.3689545392990112</v>
+        <v>0.3236158490180969</v>
       </c>
     </row>
     <row r="200">
@@ -6034,7 +6034,7 @@
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.7717381119728088</v>
+        <v>0.8019561171531677</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5185515284538269</v>
+        <v>0.4855455756187439</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.7778035998344421</v>
+        <v>0.9381382465362549</v>
       </c>
     </row>
     <row r="203">
@@ -6106,7 +6106,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -6115,10 +6115,10 @@
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.8072157502174377</v>
+        <v>0.6224032044410706</v>
       </c>
     </row>
     <row r="204">
@@ -6134,7 +6134,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -6143,10 +6143,10 @@
         </is>
       </c>
       <c r="E204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.3179842233657837</v>
+        <v>0.7833614945411682</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.6839323043823242</v>
+        <v>0.7521739602088928</v>
       </c>
     </row>
     <row r="206">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -6199,10 +6199,10 @@
         </is>
       </c>
       <c r="E206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.7519806623458862</v>
+        <v>0.9138363003730774</v>
       </c>
     </row>
     <row r="207">
@@ -6218,7 +6218,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -6227,10 +6227,10 @@
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.4055080413818359</v>
+        <v>0.4940387606620789</v>
       </c>
     </row>
     <row r="208">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -6255,10 +6255,10 @@
         </is>
       </c>
       <c r="E208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>0.8030769228935242</v>
+        <v>0.5126150846481323</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.8732192516326904</v>
+        <v>0.7596995830535889</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.5765379667282104</v>
+        <v>0.3449971377849579</v>
       </c>
     </row>
   </sheetData>
